--- a/medicine/Sexualité et sexologie/Angela_Behelle/Angela_Behelle.xlsx
+++ b/medicine/Sexualité et sexologie/Angela_Behelle/Angela_Behelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Angela Behelle, née le 5 octobre 1971 à Auchel[1], est une romancière française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angela Behelle, née le 5 octobre 1971 à Auchel, est une romancière française.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Pas-de-Calais, Angela Behelle poursuit des études de droit à Lille et réside actuellement dans l'Yonne[1],[2]. Très jeune, elle est animée par la passion de l'écriture[1],[3], mais elle ne passera le cap de l'édition que tardivement [4].
-Détestant la vulgarité [1] trop souvent associée à la littérature érotique[1],[5], elle est l'auteure de romans sentimentaux publiés notamment chez J'ai lu[6], Flammarion-Pygmalion[7], aux Éditions Leduc[8], France Loisirs et aux Éditions Blanche[9],[10].
-En juin 2012, elle publie une saga érotique évoquant la vie d'une société secrète créée par des hommes influents souhaitant donner libre cours à tous leurs désirs. Rapidement, cette histoire déclenche la polémique sur les réseaux sociaux[11]. En 2013, La Société, série en dix volumes[12], est éditée en livre de poche aux Éditions J'ai lu[13] et des rumeurs infondées d'adaptation cinématographique enthousiasment les fans de la série [14],[15],[16].
-En 2017, un premier spin-off prolonge l'univers particulier de ses personnages [17].
-Les arcanes du pouvoir et ses faiblesses quand il s'agit d'intérêts privés et de faveurs personnelles constituent un thème récurrent chez l'écrivain qui se plaît à dépeindre des femmes s'assumant seules, y compris dans leur sexualité, ou dont la fragilité apparente révèle souvent un potentiel érotique et une détermination insoupçonnés[18],[19].
-En 2015, l'auteure prend son propre contre-pied et se glisse dans la peau d'un homme pour aborder l'initiation d'un jeune puceau, brillant étudiant en Lettres, Jérémy [20]. La plantureuse Claudia, une libraire âgée de 39 ans, décelant très tôt chez lui l'appel d'un destin insoupçonné, le guide alors dans un parcours initiatique qui le révèle à lui-même. Son éditeur, Franck Spengler, définit l'ouvrage comme un "mix initiatique entre Bel Ami et Madame Claude"[21]. Loin de toute polémique cette fois, l'Élection présidentielle française de 2017 offre un écho amusant à ce roman érotique. En 2018, l'acteur Benoit Berthon[22] prête sa voix à la version audio de ce roman, Au bonheur de ces dames. Ce titre, paru au catalogue des Éditions Blanche de la maison Hugo &amp; Cie, est l'un des premiers à intégrer la toute nouvelle collection Libido[23] chez Audible.com[24].
-Une information provenant de la blogosphère dévoile qu'elle publie également sous un autre nom de plume, Sylvie Barret[25],[26]. Rédemption est sa première duologie[27].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Pas-de-Calais, Angela Behelle poursuit des études de droit à Lille et réside actuellement dans l'Yonne,. Très jeune, elle est animée par la passion de l'écriture mais elle ne passera le cap de l'édition que tardivement .
+Détestant la vulgarité  trop souvent associée à la littérature érotique elle est l'auteure de romans sentimentaux publiés notamment chez J'ai lu, Flammarion-Pygmalion, aux Éditions Leduc, France Loisirs et aux Éditions Blanche,.
+En juin 2012, elle publie une saga érotique évoquant la vie d'une société secrète créée par des hommes influents souhaitant donner libre cours à tous leurs désirs. Rapidement, cette histoire déclenche la polémique sur les réseaux sociaux. En 2013, La Société, série en dix volumes, est éditée en livre de poche aux Éditions J'ai lu et des rumeurs infondées d'adaptation cinématographique enthousiasment les fans de la série .
+En 2017, un premier spin-off prolonge l'univers particulier de ses personnages .
+Les arcanes du pouvoir et ses faiblesses quand il s'agit d'intérêts privés et de faveurs personnelles constituent un thème récurrent chez l'écrivain qui se plaît à dépeindre des femmes s'assumant seules, y compris dans leur sexualité, ou dont la fragilité apparente révèle souvent un potentiel érotique et une détermination insoupçonnés,.
+En 2015, l'auteure prend son propre contre-pied et se glisse dans la peau d'un homme pour aborder l'initiation d'un jeune puceau, brillant étudiant en Lettres, Jérémy . La plantureuse Claudia, une libraire âgée de 39 ans, décelant très tôt chez lui l'appel d'un destin insoupçonné, le guide alors dans un parcours initiatique qui le révèle à lui-même. Son éditeur, Franck Spengler, définit l'ouvrage comme un "mix initiatique entre Bel Ami et Madame Claude". Loin de toute polémique cette fois, l'Élection présidentielle française de 2017 offre un écho amusant à ce roman érotique. En 2018, l'acteur Benoit Berthon prête sa voix à la version audio de ce roman, Au bonheur de ces dames. Ce titre, paru au catalogue des Éditions Blanche de la maison Hugo &amp; Cie, est l'un des premiers à intégrer la toute nouvelle collection Libido chez Audible.com.
+Une information provenant de la blogosphère dévoile qu'elle publie également sous un autre nom de plume, Sylvie Barret,. Rédemption est sa première duologie.
 </t>
         </is>
       </c>
